--- a/files/Exel/testwrite.xlsx
+++ b/files/Exel/testwrite.xlsx
@@ -81,14 +81,15 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
